--- a/teaching/traditional_assets/database/data/netherlands/netherlands_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/netherlands/netherlands_financial_svcs_non_bank_insurance.xlsx
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0566</v>
+        <v>0.09849999999999999</v>
       </c>
       <c r="E2">
-        <v>0.281</v>
+        <v>0.136</v>
       </c>
       <c r="F2">
-        <v>0.21</v>
+        <v>0.07719999999999999</v>
       </c>
       <c r="G2">
-        <v>0.481516813737181</v>
+        <v>0.3940333911139494</v>
       </c>
       <c r="H2">
-        <v>0.4693536847126163</v>
+        <v>0.3827205546939147</v>
       </c>
       <c r="I2">
-        <v>0.4639657841568164</v>
+        <v>0.4744092692272602</v>
       </c>
       <c r="J2">
-        <v>0.304058347300848</v>
+        <v>0.3212594559008717</v>
       </c>
       <c r="K2">
-        <v>274.3</v>
+        <v>365.5</v>
       </c>
       <c r="L2">
-        <v>0.3270927736704031</v>
+        <v>0.3334549767356992</v>
       </c>
       <c r="M2">
-        <v>131.37</v>
+        <v>152.49</v>
       </c>
       <c r="N2">
-        <v>0.02179655223905361</v>
+        <v>0.01908080782802372</v>
       </c>
       <c r="O2">
-        <v>0.4789281808239154</v>
+        <v>0.4172093023255814</v>
       </c>
       <c r="P2">
-        <v>128.8</v>
+        <v>133.99</v>
       </c>
       <c r="Q2">
-        <v>0.02137014484577989</v>
+        <v>0.01676593508346055</v>
       </c>
       <c r="R2">
-        <v>0.4695588771418155</v>
+        <v>0.366593707250342</v>
       </c>
       <c r="S2">
-        <v>2.569999999999993</v>
+        <v>18.5</v>
       </c>
       <c r="T2">
-        <v>0.01956306614904463</v>
+        <v>0.1213194307823464</v>
       </c>
       <c r="U2">
-        <v>429.2</v>
+        <v>750.4000000000001</v>
       </c>
       <c r="V2">
-        <v>0.07121169384944666</v>
+        <v>0.09389624364974099</v>
       </c>
       <c r="W2">
-        <v>0.3352153008708281</v>
+        <v>0.2754515703040688</v>
       </c>
       <c r="X2">
-        <v>0.03021071118885817</v>
+        <v>0.02047265216076195</v>
       </c>
       <c r="Y2">
-        <v>0.3050045896819699</v>
+        <v>0.2549789181433069</v>
       </c>
       <c r="Z2">
-        <v>0.6485052876695572</v>
+        <v>0.5137410859289501</v>
       </c>
       <c r="AA2">
-        <v>0.1323050932962342</v>
+        <v>0.1042502428106921</v>
       </c>
       <c r="AB2">
-        <v>0.02825350874752656</v>
+        <v>0.02031053880824775</v>
       </c>
       <c r="AC2">
-        <v>0.1040515845487077</v>
+        <v>0.08393970400244438</v>
       </c>
       <c r="AD2">
-        <v>1528.4</v>
+        <v>1875.9</v>
       </c>
       <c r="AE2">
-        <v>80.16646703046884</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1608.566467030469</v>
+        <v>1875.9</v>
       </c>
       <c r="AG2">
-        <v>1179.366467030469</v>
+        <v>1125.5</v>
       </c>
       <c r="AH2">
-        <v>0.2106648416318326</v>
+        <v>0.1901050903452679</v>
       </c>
       <c r="AI2">
-        <v>0.6044137426986123</v>
+        <v>0.5952781391806556</v>
       </c>
       <c r="AJ2">
-        <v>0.1636539172736127</v>
+        <v>0.1234466344202779</v>
       </c>
       <c r="AK2">
-        <v>0.5283505887441371</v>
+        <v>0.4687825398808781</v>
       </c>
       <c r="AL2">
-        <v>11</v>
+        <v>19.1</v>
       </c>
       <c r="AM2">
-        <v>4.41</v>
+        <v>11.84</v>
       </c>
       <c r="AN2">
-        <v>3.645861908567202</v>
+        <v>3.460431654676259</v>
       </c>
       <c r="AO2">
-        <v>34.38181818181818</v>
+        <v>27.22513089005236</v>
       </c>
       <c r="AP2">
-        <v>2.813273539903077</v>
+        <v>2.076185205681608</v>
       </c>
       <c r="AQ2">
-        <v>85.75963718820861</v>
+        <v>43.91891891891891</v>
       </c>
     </row>
     <row r="3">
@@ -728,124 +728,124 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0566</v>
+        <v>0.09849999999999999</v>
       </c>
       <c r="E3">
-        <v>0.281</v>
+        <v>0.136</v>
       </c>
       <c r="F3">
-        <v>0.12</v>
+        <v>0.07719999999999999</v>
       </c>
       <c r="G3">
-        <v>0.5691331923890064</v>
+        <v>0.4388335704125177</v>
       </c>
       <c r="H3">
-        <v>0.5547568710359408</v>
+        <v>0.4262345051818736</v>
       </c>
       <c r="I3">
-        <v>0.5486523636946447</v>
+        <v>0.5283478967689493</v>
       </c>
       <c r="J3">
-        <v>0.3810775467290857</v>
+        <v>0.3836349618083363</v>
       </c>
       <c r="K3">
-        <v>242.7</v>
+        <v>349.1</v>
       </c>
       <c r="L3">
-        <v>0.3420718816067653</v>
+        <v>0.3547043283885389</v>
       </c>
       <c r="M3">
-        <v>119.47</v>
+        <v>148.4</v>
       </c>
       <c r="N3">
-        <v>0.02105012774204916</v>
+        <v>0.01934407424787528</v>
       </c>
       <c r="O3">
-        <v>0.492253811289658</v>
+        <v>0.4250930965339444</v>
       </c>
       <c r="P3">
-        <v>116.9</v>
+        <v>129.9</v>
       </c>
       <c r="Q3">
-        <v>0.02059730420227293</v>
+        <v>0.01693258251212263</v>
       </c>
       <c r="R3">
-        <v>0.4816646065100948</v>
+        <v>0.3720996849040389</v>
       </c>
       <c r="S3">
-        <v>2.569999999999993</v>
+        <v>18.5</v>
       </c>
       <c r="T3">
-        <v>0.02151167657152418</v>
+        <v>0.1246630727762803</v>
       </c>
       <c r="U3">
-        <v>354.5</v>
+        <v>666.2</v>
       </c>
       <c r="V3">
-        <v>0.06246145714034006</v>
+        <v>0.08683977266802231</v>
       </c>
       <c r="W3">
-        <v>0.2919874879692011</v>
+        <v>0.3698876880695063</v>
       </c>
       <c r="X3">
-        <v>0.02831265208850802</v>
+        <v>0.01823592418503987</v>
       </c>
       <c r="Y3">
-        <v>0.2636748358806931</v>
+        <v>0.3516517638844664</v>
       </c>
       <c r="Z3">
-        <v>0.6954820448726703</v>
+        <v>0.5434866640896793</v>
       </c>
       <c r="AA3">
-        <v>0.2650325914542052</v>
+        <v>0.2085004856213843</v>
       </c>
       <c r="AB3">
-        <v>0.02742099574491659</v>
+        <v>0.01802237842405653</v>
       </c>
       <c r="AC3">
-        <v>0.2376115957092886</v>
+        <v>0.1904781071973277</v>
       </c>
       <c r="AD3">
-        <v>1221.6</v>
+        <v>1564.2</v>
       </c>
       <c r="AE3">
-        <v>77.65573979324819</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1299.255739793248</v>
+        <v>1564.2</v>
       </c>
       <c r="AG3">
-        <v>944.755739793248</v>
+        <v>898</v>
       </c>
       <c r="AH3">
-        <v>0.1862797477452252</v>
+        <v>0.1693626973299552</v>
       </c>
       <c r="AI3">
-        <v>0.5751067608610961</v>
+        <v>0.5718150246755621</v>
       </c>
       <c r="AJ3">
-        <v>0.1427068344376003</v>
+        <v>0.1047890216579537</v>
       </c>
       <c r="AK3">
-        <v>0.4960244101098302</v>
+        <v>0.4339631759532209</v>
       </c>
       <c r="AL3">
-        <v>11</v>
+        <v>19.1</v>
       </c>
       <c r="AM3">
-        <v>4.41</v>
+        <v>11.84</v>
       </c>
       <c r="AN3">
-        <v>2.916209119121508</v>
+        <v>2.885445489762037</v>
       </c>
       <c r="AO3">
-        <v>34.38181818181818</v>
+        <v>27.22513089005236</v>
       </c>
       <c r="AP3">
-        <v>2.255325232258887</v>
+        <v>1.656520937096477</v>
       </c>
       <c r="AQ3">
-        <v>85.75963718820861</v>
+        <v>43.91891891891891</v>
       </c>
     </row>
     <row r="4">
@@ -864,9 +864,6 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="F4">
-        <v>0.3</v>
-      </c>
       <c r="G4">
         <v>0</v>
       </c>
@@ -874,34 +871,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-0.001449616169203169</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>-0.0008931416320810314</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>31.6</v>
+        <v>16.4</v>
       </c>
       <c r="L4">
-        <v>0.2447714949651433</v>
+        <v>0.1465594280607685</v>
       </c>
       <c r="M4">
-        <v>11.9</v>
+        <v>4.09</v>
       </c>
       <c r="N4">
-        <v>0.0338452787258248</v>
+        <v>0.01277326670830731</v>
       </c>
       <c r="O4">
-        <v>0.3765822784810127</v>
+        <v>0.249390243902439</v>
       </c>
       <c r="P4">
-        <v>11.9</v>
+        <v>4.09</v>
       </c>
       <c r="Q4">
-        <v>0.0338452787258248</v>
+        <v>0.01277326670830731</v>
       </c>
       <c r="R4">
-        <v>0.3765822784810127</v>
+        <v>0.249390243902439</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -910,67 +907,61 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>74.7</v>
+        <v>84.2</v>
       </c>
       <c r="V4">
-        <v>0.212457337883959</v>
+        <v>0.2629606495940038</v>
       </c>
       <c r="W4">
-        <v>0.3784431137724551</v>
+        <v>0.1810154525386314</v>
       </c>
       <c r="X4">
-        <v>0.03210877028920831</v>
+        <v>0.02270938013648402</v>
       </c>
       <c r="Y4">
-        <v>0.3463343434832468</v>
+        <v>0.1583060724021473</v>
       </c>
       <c r="Z4">
-        <v>0.4729427523745278</v>
+        <v>0.3467993119799173</v>
       </c>
       <c r="AA4">
-        <v>-0.0004224048617366808</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.02908602175013653</v>
+        <v>0.02259869919243897</v>
       </c>
       <c r="AC4">
-        <v>-0.02950842661187321</v>
+        <v>-0.02259869919243897</v>
       </c>
       <c r="AD4">
-        <v>306.8</v>
+        <v>311.7</v>
       </c>
       <c r="AE4">
-        <v>2.510727237220646</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>309.3107272372206</v>
+        <v>311.7</v>
       </c>
       <c r="AG4">
-        <v>234.6107272372207</v>
+        <v>227.5</v>
       </c>
       <c r="AH4">
-        <v>0.4680068192117567</v>
+        <v>0.4932742522551036</v>
       </c>
       <c r="AI4">
-        <v>0.7690265482521346</v>
+        <v>0.7496392496392497</v>
       </c>
       <c r="AJ4">
-        <v>0.4002156841157245</v>
+        <v>0.4153733795873653</v>
       </c>
       <c r="AK4">
-        <v>0.7163451689546914</v>
+        <v>0.6860675512665863</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>973.968253968254</v>
-      </c>
-      <c r="AP4">
-        <v>744.7959594832402</v>
       </c>
     </row>
   </sheetData>
